--- a/Excel Files/Bill Of Materials (1).xlsx
+++ b/Excel Files/Bill Of Materials (1).xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\65833\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\himol\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42121172-4F96-48F1-BA51-E3A5E8CCE788}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC4B1876-DC07-494E-8E39-AE182D556B89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{C8C1D8BB-10F7-49BF-8560-67C50CB8DDC5}"/>
+    <workbookView xWindow="11685" yWindow="390" windowWidth="19590" windowHeight="9360" xr2:uid="{C8C1D8BB-10F7-49BF-8560-67C50CB8DDC5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$J$162</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$L$162</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="84">
   <si>
     <t>No</t>
   </si>
@@ -105,9 +105,6 @@
     <t>Stepper Motors</t>
   </si>
   <si>
-    <t>Servo Motors</t>
-  </si>
-  <si>
     <t>To rotate and control arm</t>
   </si>
   <si>
@@ -186,15 +183,9 @@
     <t>To make circuits</t>
   </si>
   <si>
-    <t>Lithium Batteries</t>
-  </si>
-  <si>
     <t>Charge Controllers</t>
   </si>
   <si>
-    <t>Buck/Boost converter</t>
-  </si>
-  <si>
     <t>Power the system</t>
   </si>
   <si>
@@ -222,9 +213,6 @@
     <t>Self locking with position data, very useful</t>
   </si>
   <si>
-    <t>https://www.amazon.com/Torque-Reduction-Encoder-Self-locking-Output/dp/B073S65J25</t>
-  </si>
-  <si>
     <t>Motor Driver</t>
   </si>
   <si>
@@ -235,6 +223,72 @@
   </si>
   <si>
     <t>Total Estimated Cost</t>
+  </si>
+  <si>
+    <t>https://shopee.sg/16-Channel-12-bit-PWM-Servo-Driver-I2C-interface-PCA9685-module-Raspberry-pi-shield-module-servo-shield-i.161750523.6635323315</t>
+  </si>
+  <si>
+    <t>https://shopee.sg/ESP32-ESP-32-WiFi-Bluetooth-4MB-Flash-For-Wemos-D1-R32-Development-Board-Module-For-Arduino-UNO-R3-i.161750523.3726750264?position=5</t>
+  </si>
+  <si>
+    <t>Not in use</t>
+  </si>
+  <si>
+    <t>Using PC from EG</t>
+  </si>
+  <si>
+    <t>Not in Use</t>
+  </si>
+  <si>
+    <t>Required</t>
+  </si>
+  <si>
+    <t>Sourcing from EG</t>
+  </si>
+  <si>
+    <t>Personal item</t>
+  </si>
+  <si>
+    <t>Requirements</t>
+  </si>
+  <si>
+    <t>https://shopee.sg/Best-Price-Servos-Digital-MG996-Servo-Metal-Gear-for-Futaba-JR-Car-RC-Model-Helicopter-Boat-For-Arduino-UNO-diy-i.321673055.5356790444?ads_keyword=wkdaelpmissisiht&amp;adsid=4618854&amp;campaignid=2566569&amp;position=0</t>
+  </si>
+  <si>
+    <t>Servo Motors (MG996R)</t>
+  </si>
+  <si>
+    <t>3S Lithium Battery 5000mAh</t>
+  </si>
+  <si>
+    <t>https://shopee.sg/-Shop-Malaysia-7.4V-2S-11.1V-3S-25C-30C-1100mah-2200mah-3000mah-5000-6000mah-Lipo-Li-po-Rechargeable-RC-Tamiya-Racing-Car-Drone-Battery-i.182888555.3600160373?position=0</t>
+  </si>
+  <si>
+    <t>300W Buck Converter</t>
+  </si>
+  <si>
+    <t>Items on Hand</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>TBC</t>
+  </si>
+  <si>
+    <t>https://shopee.sg/official-IIC-I2C-TB6612-Mosfet-Stepper-Motor-PCA9685-PWM-Servo-Driver-Shield-V2-For-Arduino-Robot-PWM-Uno-Mega-R3-Replace-L293D-i.161750523.3961896865?position=22</t>
+  </si>
+  <si>
+    <t>https://shopee.sg/Hanhan-DC-Worm-Gear-Motor-15mm-Double-Shaft-Speed-Reduction-Drive-Device-with-Encoder-JGY%E2%80%91370-i.269997841.10938323509?position=1</t>
+  </si>
+  <si>
+    <t>https://shopee.sg/300W-20A-DC-DC-Buck-Converter-Step-Down-Module-Constant-Current-LED-Driver-Power-Step-Down-Voltage-Module-Electrolytic-Capacitor-i.56539845.9690959785?position=7</t>
+  </si>
+  <si>
+    <t>https://shopee.sg/7-inch-HDMI-LCD-(C)-IPS-Capacitive-Touchscreen-Display-1024x600-with-Casing-Stand-11303-suitable-for-Raspberry-Pi-i.165760599.4918628025</t>
+  </si>
+  <si>
+    <t>https://shopee.sg/3S-15A-Li-ion-Lithium-Battery-18650-Charger-PCB-BMS-Protection-Board-11.1V-12V-12.6V-Lipo-Cell-Module-i.161750523.6550111605?position=21</t>
   </si>
 </sst>
 </file>
@@ -243,7 +297,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -354,7 +408,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -362,7 +416,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -371,13 +425,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -392,7 +446,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -400,6 +454,18 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -716,28 +782,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8182256-954F-4F59-85A5-CC571E5460A2}">
-  <dimension ref="A1:J162"/>
+  <dimension ref="A1:L162"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.90625" style="1"/>
-    <col min="6" max="6" width="19.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="38.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="227.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.90625" style="1"/>
+    <col min="4" max="4" width="8.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.85546875" style="1"/>
+    <col min="7" max="7" width="19.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.28515625" style="16" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="38.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="227.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -751,25 +819,31 @@
         <v>10</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>64</v>
-      </c>
       <c r="G1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -777,23 +851,29 @@
         <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D2" s="1">
-        <v>2</v>
-      </c>
-      <c r="E2" s="4">
-        <v>2</v>
-      </c>
-      <c r="F2" s="3">
-        <f>D2*E2</f>
-        <v>4</v>
-      </c>
-      <c r="I2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="G2" s="3" t="str">
+        <f>IF(E2="Required",D2*F2,"NA")</f>
+        <v>NA</v>
+      </c>
+      <c r="H2" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -801,23 +881,29 @@
         <v>8</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D3" s="1">
-        <v>2</v>
-      </c>
-      <c r="E3" s="3">
-        <v>8</v>
-      </c>
-      <c r="F3" s="3">
-        <f t="shared" ref="F3:F66" si="0">D3*E3</f>
-        <v>16</v>
-      </c>
-      <c r="I3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="G3" s="3" t="str">
+        <f t="shared" ref="G3:G26" si="0">IF(E3="Required",D3*F3,"NA")</f>
+        <v>NA</v>
+      </c>
+      <c r="H3" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -825,23 +911,32 @@
         <v>9</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D4" s="1">
-        <v>1</v>
-      </c>
-      <c r="E4" s="3">
-        <v>80</v>
-      </c>
-      <c r="F4" s="3">
-        <f t="shared" si="0"/>
-        <v>80</v>
-      </c>
-      <c r="I4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="G4" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>NA</v>
+      </c>
+      <c r="H4" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="L4" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -852,20 +947,29 @@
         <v>13</v>
       </c>
       <c r="D5" s="1">
-        <v>3</v>
-      </c>
-      <c r="E5" s="3">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F5" s="3">
         <v>6</v>
       </c>
-      <c r="F5" s="3">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="I5" s="2" t="s">
+      <c r="G5" s="3">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="H5" s="16">
+        <v>0</v>
+      </c>
+      <c r="K5" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="L5" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -873,23 +977,32 @@
         <v>14</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D6" s="1">
-        <v>2</v>
-      </c>
-      <c r="E6" s="3">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F6" s="3">
         <v>6</v>
       </c>
-      <c r="F6" s="3">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="I6" s="2" t="s">
+      <c r="G6" s="3">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="H6" s="16">
+        <v>0</v>
+      </c>
+      <c r="K6" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="L6" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -897,915 +1010,1110 @@
         <v>21</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" s="3">
-        <v>10</v>
-      </c>
-      <c r="F7" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+        <v>24</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="G7" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>NA</v>
+      </c>
+      <c r="H7" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>22</v>
+        <v>72</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" s="3">
-        <v>5</v>
+        <v>24</v>
+      </c>
+      <c r="D8" s="1">
+        <v>3</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="F8" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+        <v>6</v>
+      </c>
+      <c r="G8" s="3">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="H8" s="16">
+        <v>0</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D9" s="1">
-        <v>1</v>
-      </c>
-      <c r="E9" s="3">
-        <v>2</v>
-      </c>
-      <c r="F9" s="3">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="G9" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>NA</v>
+      </c>
+      <c r="H9" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="1">
-        <v>1</v>
-      </c>
-      <c r="E10" s="3">
-        <v>4</v>
-      </c>
-      <c r="F10" s="3">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="G10" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>NA</v>
+      </c>
+      <c r="H10" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D11" s="1">
-        <v>1</v>
-      </c>
-      <c r="E11" s="3">
-        <v>3</v>
-      </c>
-      <c r="F11" s="3">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="G11" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>NA</v>
+      </c>
+      <c r="H11" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="D12" s="1">
+        <v>0</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="G12" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>NA</v>
+      </c>
+      <c r="H12" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="D13" s="1">
+        <v>0</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="G13" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>NA</v>
+      </c>
+      <c r="H13" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E14" s="3">
-        <v>4</v>
-      </c>
-      <c r="F14" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="D14" s="1">
+        <v>0</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="G14" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>NA</v>
+      </c>
+      <c r="H14" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="G15" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>NA</v>
+      </c>
+      <c r="H15" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="K15" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E15" s="3">
-        <v>100</v>
-      </c>
-      <c r="F15" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E16" s="3">
-        <v>6</v>
-      </c>
-      <c r="F16" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="D16" s="1">
+        <v>0</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="G16" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>NA</v>
+      </c>
+      <c r="H16" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="G17" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>NA</v>
+      </c>
+      <c r="H17" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E18" s="3">
-        <v>10</v>
-      </c>
-      <c r="F18" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="D18" s="1">
+        <v>0</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="G18" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>NA</v>
+      </c>
+      <c r="H18" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19" s="1">
+        <v>1</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F19" s="3">
+        <v>5</v>
+      </c>
+      <c r="G19" s="3">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="H19" s="16">
+        <v>0</v>
+      </c>
+      <c r="K19" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="L19" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="E19" s="3">
-        <v>5</v>
-      </c>
-      <c r="F19" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="J19" s="15" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D20" s="1">
+        <v>1</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F20" s="3">
+        <v>54</v>
+      </c>
+      <c r="G20" s="3">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="H20" s="16">
+        <v>0</v>
+      </c>
+      <c r="K20" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E20" s="3">
-        <v>20</v>
-      </c>
-      <c r="F20" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I20" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="L20" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" s="1">
+        <v>1</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="G21" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>NA</v>
+      </c>
+      <c r="H21" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="K21" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="L21" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" s="1">
+        <v>2</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F22" s="3">
+        <v>4.2300000000000004</v>
+      </c>
+      <c r="G22" s="3">
+        <f t="shared" si="0"/>
+        <v>8.4600000000000009</v>
+      </c>
+      <c r="H22" s="16">
+        <v>0</v>
+      </c>
+      <c r="K22" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E22" s="3">
-        <v>2</v>
-      </c>
-      <c r="F22" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I22" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="L22" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+        <v>38</v>
+      </c>
+      <c r="D23" s="1">
+        <v>2</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="G23" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>NA</v>
+      </c>
+      <c r="H23" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E24" s="3">
-        <v>5</v>
-      </c>
-      <c r="F24" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I24" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+        <v>38</v>
+      </c>
+      <c r="D24" s="1">
+        <v>2</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="G24" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>NA</v>
+      </c>
+      <c r="H24" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D25" s="1">
-        <v>4</v>
-      </c>
-      <c r="E25" s="3">
-        <v>20</v>
+        <v>7</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="F25" s="3">
-        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="G25" s="3">
+        <f t="shared" si="0"/>
+        <v>98</v>
+      </c>
+      <c r="H25" s="16">
+        <v>0</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="L25" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="I25" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="J25" s="15" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D26" s="1">
-        <v>4</v>
-      </c>
-      <c r="E26" s="3">
         <v>3</v>
       </c>
+      <c r="E26" s="1" t="s">
+        <v>67</v>
+      </c>
       <c r="F26" s="3">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="I26" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+      <c r="G26" s="3">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="H26" s="16">
+        <v>0</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="L26" s="15" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>26</v>
       </c>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="F27" s="3"/>
+      <c r="G27" s="3">
+        <f t="shared" ref="G27:G31" si="1">D27*F27</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>27</v>
       </c>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="F28" s="3"/>
+      <c r="G28" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>28</v>
       </c>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="F29" s="3"/>
+      <c r="G29" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>29</v>
       </c>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F30" s="3"/>
+      <c r="G30" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="5">
         <v>30</v>
       </c>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I31" s="7"/>
-      <c r="J31" s="7"/>
-    </row>
-    <row r="32" spans="1:10" s="12" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F31" s="6"/>
+      <c r="G31" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H31" s="17"/>
+      <c r="K31" s="7"/>
+      <c r="L31" s="7"/>
+    </row>
+    <row r="32" spans="1:12" s="12" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="11"/>
       <c r="B32" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="E32" s="13"/>
-      <c r="F32" s="13">
-        <f>SUM(F2:F31)</f>
-        <v>231</v>
-      </c>
-      <c r="I32" s="14"/>
-      <c r="J32" s="14"/>
-    </row>
-    <row r="33" spans="5:10" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="E33" s="8"/>
+        <v>61</v>
+      </c>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13">
+        <f>SUM(G2:G31)</f>
+        <v>204.46</v>
+      </c>
+      <c r="H32" s="18"/>
+      <c r="K32" s="14"/>
+      <c r="L32" s="14"/>
+    </row>
+    <row r="33" spans="6:12" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F33" s="8"/>
-      <c r="I33" s="10"/>
-      <c r="J33" s="10"/>
-    </row>
-    <row r="34" spans="5:10" x14ac:dyDescent="0.35">
-      <c r="E34" s="3"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="19"/>
+      <c r="K33" s="10"/>
+      <c r="L33" s="10"/>
+    </row>
+    <row r="34" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F34" s="3"/>
-    </row>
-    <row r="35" spans="5:10" x14ac:dyDescent="0.35">
-      <c r="E35" s="3"/>
+      <c r="G34" s="3"/>
+    </row>
+    <row r="35" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F35" s="3"/>
-    </row>
-    <row r="36" spans="5:10" x14ac:dyDescent="0.35">
-      <c r="E36" s="3"/>
+      <c r="G35" s="3"/>
+    </row>
+    <row r="36" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F36" s="3"/>
-    </row>
-    <row r="37" spans="5:10" x14ac:dyDescent="0.35">
-      <c r="E37" s="3"/>
+      <c r="G36" s="3"/>
+    </row>
+    <row r="37" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F37" s="3"/>
-    </row>
-    <row r="38" spans="5:10" x14ac:dyDescent="0.35">
-      <c r="E38" s="3"/>
+      <c r="G37" s="3"/>
+    </row>
+    <row r="38" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F38" s="3"/>
-    </row>
-    <row r="39" spans="5:10" x14ac:dyDescent="0.35">
-      <c r="E39" s="3"/>
+      <c r="G38" s="3"/>
+    </row>
+    <row r="39" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F39" s="3"/>
-    </row>
-    <row r="40" spans="5:10" x14ac:dyDescent="0.35">
-      <c r="E40" s="3"/>
+      <c r="G39" s="3"/>
+    </row>
+    <row r="40" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F40" s="3"/>
-    </row>
-    <row r="41" spans="5:10" x14ac:dyDescent="0.35">
-      <c r="E41" s="3"/>
+      <c r="G40" s="3"/>
+    </row>
+    <row r="41" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F41" s="3"/>
-    </row>
-    <row r="42" spans="5:10" x14ac:dyDescent="0.35">
-      <c r="E42" s="3"/>
+      <c r="G41" s="3"/>
+    </row>
+    <row r="42" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F42" s="3"/>
-    </row>
-    <row r="43" spans="5:10" x14ac:dyDescent="0.35">
-      <c r="E43" s="3"/>
+      <c r="G42" s="3"/>
+    </row>
+    <row r="43" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F43" s="3"/>
-    </row>
-    <row r="44" spans="5:10" x14ac:dyDescent="0.35">
-      <c r="E44" s="3"/>
+      <c r="G43" s="3"/>
+    </row>
+    <row r="44" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F44" s="3"/>
-    </row>
-    <row r="45" spans="5:10" x14ac:dyDescent="0.35">
-      <c r="E45" s="3"/>
+      <c r="G44" s="3"/>
+    </row>
+    <row r="45" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F45" s="3"/>
-    </row>
-    <row r="46" spans="5:10" x14ac:dyDescent="0.35">
-      <c r="E46" s="3"/>
+      <c r="G45" s="3"/>
+    </row>
+    <row r="46" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F46" s="3"/>
-    </row>
-    <row r="47" spans="5:10" x14ac:dyDescent="0.35">
-      <c r="F47" s="3"/>
-    </row>
-    <row r="48" spans="5:10" x14ac:dyDescent="0.35">
-      <c r="F48" s="3"/>
-    </row>
-    <row r="49" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F49" s="3"/>
-    </row>
-    <row r="50" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F50" s="3"/>
-    </row>
-    <row r="51" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F51" s="3"/>
-    </row>
-    <row r="52" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F52" s="3"/>
-    </row>
-    <row r="53" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F53" s="3"/>
-    </row>
-    <row r="54" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F54" s="3"/>
-    </row>
-    <row r="55" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F55" s="3"/>
-    </row>
-    <row r="56" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F56" s="3"/>
-    </row>
-    <row r="57" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F57" s="3"/>
-    </row>
-    <row r="58" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F58" s="3"/>
-    </row>
-    <row r="59" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F59" s="3"/>
-    </row>
-    <row r="60" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F60" s="3"/>
-    </row>
-    <row r="61" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F61" s="3"/>
-    </row>
-    <row r="62" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F62" s="3"/>
-    </row>
-    <row r="63" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F63" s="3"/>
-    </row>
-    <row r="64" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F64" s="3"/>
-    </row>
-    <row r="65" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F65" s="3"/>
-    </row>
-    <row r="66" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F66" s="3"/>
-    </row>
-    <row r="67" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F67" s="3"/>
-    </row>
-    <row r="68" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F68" s="3"/>
-    </row>
-    <row r="69" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F69" s="3"/>
-    </row>
-    <row r="70" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F70" s="3"/>
-    </row>
-    <row r="71" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F71" s="3"/>
-    </row>
-    <row r="72" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F72" s="3"/>
-    </row>
-    <row r="73" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F73" s="3"/>
-    </row>
-    <row r="74" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F74" s="3"/>
-    </row>
-    <row r="75" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F75" s="3"/>
-    </row>
-    <row r="76" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F76" s="3"/>
-    </row>
-    <row r="77" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F77" s="3"/>
-    </row>
-    <row r="78" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F78" s="3"/>
-    </row>
-    <row r="79" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F79" s="3"/>
-    </row>
-    <row r="80" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F80" s="3"/>
-    </row>
-    <row r="81" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F81" s="3"/>
-    </row>
-    <row r="82" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F82" s="3"/>
-    </row>
-    <row r="83" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F83" s="3"/>
-    </row>
-    <row r="84" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F84" s="3"/>
-    </row>
-    <row r="85" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F85" s="3"/>
-    </row>
-    <row r="86" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F86" s="3"/>
-    </row>
-    <row r="87" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F87" s="3"/>
-    </row>
-    <row r="88" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F88" s="3"/>
-    </row>
-    <row r="89" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F89" s="3"/>
-    </row>
-    <row r="90" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F90" s="3"/>
-    </row>
-    <row r="91" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F91" s="3"/>
-    </row>
-    <row r="92" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F92" s="3"/>
-    </row>
-    <row r="93" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F93" s="3"/>
-    </row>
-    <row r="94" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F94" s="3"/>
-    </row>
-    <row r="95" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F95" s="3"/>
-    </row>
-    <row r="96" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F96" s="3"/>
-    </row>
-    <row r="97" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F97" s="3"/>
-    </row>
-    <row r="98" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F98" s="3"/>
-    </row>
-    <row r="99" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F99" s="3"/>
-    </row>
-    <row r="100" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F100" s="3"/>
-    </row>
-    <row r="101" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F101" s="3"/>
-    </row>
-    <row r="102" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F102" s="3"/>
-    </row>
-    <row r="103" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F103" s="3"/>
-    </row>
-    <row r="104" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F104" s="3"/>
-    </row>
-    <row r="105" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F105" s="3"/>
-    </row>
-    <row r="106" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F106" s="3"/>
-    </row>
-    <row r="107" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F107" s="3"/>
-    </row>
-    <row r="108" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F108" s="3"/>
-    </row>
-    <row r="109" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F109" s="3"/>
-    </row>
-    <row r="110" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F110" s="3"/>
-    </row>
-    <row r="111" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F111" s="3"/>
-    </row>
-    <row r="112" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F112" s="3"/>
-    </row>
-    <row r="113" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F113" s="3"/>
-    </row>
-    <row r="114" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F114" s="3"/>
-    </row>
-    <row r="115" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F115" s="3"/>
-    </row>
-    <row r="116" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F116" s="3"/>
-    </row>
-    <row r="117" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F117" s="3"/>
-    </row>
-    <row r="118" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F118" s="3"/>
-    </row>
-    <row r="119" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F119" s="3"/>
-    </row>
-    <row r="120" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F120" s="3"/>
-    </row>
-    <row r="121" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F121" s="3"/>
-    </row>
-    <row r="122" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F122" s="3"/>
-    </row>
-    <row r="123" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F123" s="3"/>
-    </row>
-    <row r="124" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F124" s="3"/>
-    </row>
-    <row r="125" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F125" s="3"/>
-    </row>
-    <row r="126" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F126" s="3"/>
-    </row>
-    <row r="127" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F127" s="3"/>
-    </row>
-    <row r="128" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F128" s="3"/>
-    </row>
-    <row r="129" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F129" s="3"/>
-    </row>
-    <row r="130" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F130" s="3"/>
-    </row>
-    <row r="131" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F131" s="3"/>
-    </row>
-    <row r="132" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F132" s="3"/>
-    </row>
-    <row r="133" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F133" s="3"/>
-    </row>
-    <row r="134" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F134" s="3"/>
-    </row>
-    <row r="135" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F135" s="3"/>
-    </row>
-    <row r="136" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F136" s="3"/>
-    </row>
-    <row r="137" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F137" s="3"/>
-    </row>
-    <row r="138" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F138" s="3"/>
-    </row>
-    <row r="139" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F139" s="3"/>
-    </row>
-    <row r="140" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F140" s="3"/>
-    </row>
-    <row r="141" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F141" s="3"/>
-    </row>
-    <row r="142" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F142" s="3"/>
-    </row>
-    <row r="143" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F143" s="3"/>
-    </row>
-    <row r="144" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F144" s="3"/>
-    </row>
-    <row r="145" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F145" s="3"/>
-    </row>
-    <row r="146" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F146" s="3"/>
-    </row>
-    <row r="147" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F147" s="3"/>
-    </row>
-    <row r="148" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F148" s="3"/>
-    </row>
-    <row r="149" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F149" s="3"/>
-    </row>
-    <row r="150" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F150" s="3"/>
-    </row>
-    <row r="151" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F151" s="3"/>
-    </row>
-    <row r="152" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F152" s="3"/>
-    </row>
-    <row r="153" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F153" s="3"/>
-    </row>
-    <row r="154" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F154" s="3"/>
-    </row>
-    <row r="155" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F155" s="3"/>
-    </row>
-    <row r="156" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F156" s="3"/>
-    </row>
-    <row r="157" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F157" s="3"/>
-    </row>
-    <row r="158" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F158" s="3"/>
-    </row>
-    <row r="159" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F159" s="3"/>
-    </row>
-    <row r="160" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F160" s="3"/>
-    </row>
-    <row r="161" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F161" s="3"/>
-    </row>
-    <row r="162" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F162" s="3"/>
+      <c r="G46" s="3"/>
+    </row>
+    <row r="47" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="G47" s="3"/>
+    </row>
+    <row r="48" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="G48" s="3"/>
+    </row>
+    <row r="49" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G49" s="3"/>
+    </row>
+    <row r="50" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G50" s="3"/>
+    </row>
+    <row r="51" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G51" s="3"/>
+    </row>
+    <row r="52" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G52" s="3"/>
+    </row>
+    <row r="53" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G53" s="3"/>
+    </row>
+    <row r="54" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G54" s="3"/>
+    </row>
+    <row r="55" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G55" s="3"/>
+    </row>
+    <row r="56" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G56" s="3"/>
+    </row>
+    <row r="57" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G57" s="3"/>
+    </row>
+    <row r="58" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G58" s="3"/>
+    </row>
+    <row r="59" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G59" s="3"/>
+    </row>
+    <row r="60" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G60" s="3"/>
+    </row>
+    <row r="61" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G61" s="3"/>
+    </row>
+    <row r="62" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G62" s="3"/>
+    </row>
+    <row r="63" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G63" s="3"/>
+    </row>
+    <row r="64" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G64" s="3"/>
+    </row>
+    <row r="65" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G65" s="3"/>
+    </row>
+    <row r="66" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G66" s="3"/>
+    </row>
+    <row r="67" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G67" s="3"/>
+    </row>
+    <row r="68" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G68" s="3"/>
+    </row>
+    <row r="69" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G69" s="3"/>
+    </row>
+    <row r="70" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G70" s="3"/>
+    </row>
+    <row r="71" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G71" s="3"/>
+    </row>
+    <row r="72" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G72" s="3"/>
+    </row>
+    <row r="73" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G73" s="3"/>
+    </row>
+    <row r="74" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G74" s="3"/>
+    </row>
+    <row r="75" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G75" s="3"/>
+    </row>
+    <row r="76" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G76" s="3"/>
+    </row>
+    <row r="77" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G77" s="3"/>
+    </row>
+    <row r="78" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G78" s="3"/>
+    </row>
+    <row r="79" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G79" s="3"/>
+    </row>
+    <row r="80" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G80" s="3"/>
+    </row>
+    <row r="81" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G81" s="3"/>
+    </row>
+    <row r="82" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G82" s="3"/>
+    </row>
+    <row r="83" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G83" s="3"/>
+    </row>
+    <row r="84" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G84" s="3"/>
+    </row>
+    <row r="85" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G85" s="3"/>
+    </row>
+    <row r="86" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G86" s="3"/>
+    </row>
+    <row r="87" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G87" s="3"/>
+    </row>
+    <row r="88" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G88" s="3"/>
+    </row>
+    <row r="89" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G89" s="3"/>
+    </row>
+    <row r="90" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G90" s="3"/>
+    </row>
+    <row r="91" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G91" s="3"/>
+    </row>
+    <row r="92" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G92" s="3"/>
+    </row>
+    <row r="93" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G93" s="3"/>
+    </row>
+    <row r="94" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G94" s="3"/>
+    </row>
+    <row r="95" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G95" s="3"/>
+    </row>
+    <row r="96" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G96" s="3"/>
+    </row>
+    <row r="97" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G97" s="3"/>
+    </row>
+    <row r="98" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G98" s="3"/>
+    </row>
+    <row r="99" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G99" s="3"/>
+    </row>
+    <row r="100" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G100" s="3"/>
+    </row>
+    <row r="101" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G101" s="3"/>
+    </row>
+    <row r="102" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G102" s="3"/>
+    </row>
+    <row r="103" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G103" s="3"/>
+    </row>
+    <row r="104" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G104" s="3"/>
+    </row>
+    <row r="105" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G105" s="3"/>
+    </row>
+    <row r="106" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G106" s="3"/>
+    </row>
+    <row r="107" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G107" s="3"/>
+    </row>
+    <row r="108" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G108" s="3"/>
+    </row>
+    <row r="109" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G109" s="3"/>
+    </row>
+    <row r="110" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G110" s="3"/>
+    </row>
+    <row r="111" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G111" s="3"/>
+    </row>
+    <row r="112" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G112" s="3"/>
+    </row>
+    <row r="113" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G113" s="3"/>
+    </row>
+    <row r="114" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G114" s="3"/>
+    </row>
+    <row r="115" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G115" s="3"/>
+    </row>
+    <row r="116" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G116" s="3"/>
+    </row>
+    <row r="117" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G117" s="3"/>
+    </row>
+    <row r="118" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G118" s="3"/>
+    </row>
+    <row r="119" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G119" s="3"/>
+    </row>
+    <row r="120" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G120" s="3"/>
+    </row>
+    <row r="121" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G121" s="3"/>
+    </row>
+    <row r="122" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G122" s="3"/>
+    </row>
+    <row r="123" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G123" s="3"/>
+    </row>
+    <row r="124" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G124" s="3"/>
+    </row>
+    <row r="125" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G125" s="3"/>
+    </row>
+    <row r="126" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G126" s="3"/>
+    </row>
+    <row r="127" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G127" s="3"/>
+    </row>
+    <row r="128" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G128" s="3"/>
+    </row>
+    <row r="129" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G129" s="3"/>
+    </row>
+    <row r="130" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G130" s="3"/>
+    </row>
+    <row r="131" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G131" s="3"/>
+    </row>
+    <row r="132" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G132" s="3"/>
+    </row>
+    <row r="133" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G133" s="3"/>
+    </row>
+    <row r="134" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G134" s="3"/>
+    </row>
+    <row r="135" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G135" s="3"/>
+    </row>
+    <row r="136" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G136" s="3"/>
+    </row>
+    <row r="137" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G137" s="3"/>
+    </row>
+    <row r="138" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G138" s="3"/>
+    </row>
+    <row r="139" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G139" s="3"/>
+    </row>
+    <row r="140" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G140" s="3"/>
+    </row>
+    <row r="141" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G141" s="3"/>
+    </row>
+    <row r="142" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G142" s="3"/>
+    </row>
+    <row r="143" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G143" s="3"/>
+    </row>
+    <row r="144" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G144" s="3"/>
+    </row>
+    <row r="145" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G145" s="3"/>
+    </row>
+    <row r="146" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G146" s="3"/>
+    </row>
+    <row r="147" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G147" s="3"/>
+    </row>
+    <row r="148" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G148" s="3"/>
+    </row>
+    <row r="149" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G149" s="3"/>
+    </row>
+    <row r="150" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G150" s="3"/>
+    </row>
+    <row r="151" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G151" s="3"/>
+    </row>
+    <row r="152" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G152" s="3"/>
+    </row>
+    <row r="153" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G153" s="3"/>
+    </row>
+    <row r="154" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G154" s="3"/>
+    </row>
+    <row r="155" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G155" s="3"/>
+    </row>
+    <row r="156" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G156" s="3"/>
+    </row>
+    <row r="157" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G157" s="3"/>
+    </row>
+    <row r="158" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G158" s="3"/>
+    </row>
+    <row r="159" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G159" s="3"/>
+    </row>
+    <row r="160" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G160" s="3"/>
+    </row>
+    <row r="161" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G161" s="3"/>
+    </row>
+    <row r="162" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G162" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J162" xr:uid="{F8182256-954F-4F59-85A5-CC571E5460A2}"/>
-  <dataValidations count="2">
+  <autoFilter ref="A1:L162" xr:uid="{F8182256-954F-4F59-85A5-CC571E5460A2}"/>
+  <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576" xr:uid="{4E45BFA1-C9B7-4C9B-9523-A7F2396EF744}">
       <formula1>"Integrated Circuits,Hardware,Computer,Materials,Micro Controller,Electronics,Actuators "</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G1048576" xr:uid="{380DC0A5-8633-4F25-AC16-0E408E3432CA}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1:I1048576" xr:uid="{380DC0A5-8633-4F25-AC16-0E408E3432CA}">
       <formula1>"Pending Approval,Waiting Purchase,Pending Delivery,Received"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E1048576" xr:uid="{63AFE64A-64F6-4467-AD6D-843DB3703B42}">
+      <formula1>"Requirements,Sourcing from EG, Required, Not in Use, Personal item"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="J19" r:id="rId1" xr:uid="{467B6DB9-3C0B-4837-80FB-498B1F5905B3}"/>
-    <hyperlink ref="J25" r:id="rId2" xr:uid="{685F8658-77AF-4B3B-B3C7-A5F1231045EF}"/>
+    <hyperlink ref="L19" r:id="rId1" xr:uid="{467B6DB9-3C0B-4837-80FB-498B1F5905B3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/Excel Files/Bill Of Materials (1).xlsx
+++ b/Excel Files/Bill Of Materials (1).xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\himol\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\himol\OneDrive\Documents\GitHub\EMGingers-control\Excel Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC4B1876-DC07-494E-8E39-AE182D556B89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1292C63-324D-4241-A2CA-A6874F5DE2D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11685" yWindow="390" windowWidth="19590" windowHeight="9360" xr2:uid="{C8C1D8BB-10F7-49BF-8560-67C50CB8DDC5}"/>
+    <workbookView xWindow="4410" yWindow="390" windowWidth="19590" windowHeight="9360" xr2:uid="{C8C1D8BB-10F7-49BF-8560-67C50CB8DDC5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="88">
   <si>
     <t>No</t>
   </si>
@@ -289,6 +289,18 @@
   </si>
   <si>
     <t>https://shopee.sg/3S-15A-Li-ion-Lithium-Battery-18650-Charger-PCB-BMS-Protection-Board-11.1V-12V-12.6V-Lipo-Cell-Module-i.161750523.6550111605?position=21</t>
+  </si>
+  <si>
+    <t>SB608ZZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Required </t>
+  </si>
+  <si>
+    <t>https://sg.misumi-ec.com/vona2/detail/110302273360/?HissuCode=SB608ZZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protects components, ensures smooth and efficent operation </t>
   </si>
 </sst>
 </file>
@@ -784,8 +796,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8182256-954F-4F59-85A5-CC571E5460A2}">
   <dimension ref="A1:L162"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L24" sqref="L24"/>
+    <sheetView tabSelected="1" topLeftCell="D10" workbookViewId="0">
+      <selection activeCell="K30" sqref="K30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1627,10 +1639,33 @@
       <c r="A27" s="1">
         <v>26</v>
       </c>
-      <c r="F27" s="3"/>
+      <c r="B27" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D27" s="1">
+        <v>10</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F27" s="3">
+        <v>6.2</v>
+      </c>
       <c r="G27" s="3">
         <f t="shared" ref="G27:G31" si="1">D27*F27</f>
-        <v>0</v>
+        <v>62</v>
+      </c>
+      <c r="H27" s="16">
+        <v>0</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
@@ -1684,7 +1719,7 @@
       <c r="F32" s="13"/>
       <c r="G32" s="13">
         <f>SUM(G2:G31)</f>
-        <v>204.46</v>
+        <v>266.46000000000004</v>
       </c>
       <c r="H32" s="18"/>
       <c r="K32" s="14"/>
